--- a/biology/Botanique/Brassica_napus/Brassica_napus.xlsx
+++ b/biology/Botanique/Brassica_napus/Brassica_napus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Brassica napus L. est une espèce de plante à fleurs jaunes de la famille des Brassicacées, famille anciennement nommée Crucifères. 
 L'espèce Brassica napus (n= 19 chromosomes) résulterait de la fusion de deux génomes : Brassica  oleracea (choux potagers, n = 9) × Brassica rapa (navet, choux de Chine,  n = 10).
@@ -512,11 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">D'après Jan Kops (en) dans Flora Batava, vol. 4 de 1822, la plante se distingue de Brassica rapa subsp. oleifera (navette (chou) sauvage) par ses feuilles inférieures lisses, sans poil rude, et plus larges ; ses feuilles supérieures sont moins pointues ; ses fleurs sont d'un jaune plus foncé ; et la pointe du bec des siliques est moins subulé et plus anguleuse[1].
-Vertus médicinales
-Les semences sont antiscorbutiques et diurétiques[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">D'après Jan Kops (en) dans Flora Batava, vol. 4 de 1822, la plante se distingue de Brassica rapa subsp. oleifera (navette (chou) sauvage) par ses feuilles inférieures lisses, sans poil rude, et plus larges ; ses feuilles supérieures sont moins pointues ; ses fleurs sont d'un jaune plus foncé ; et la pointe du bec des siliques est moins subulé et plus anguleuse.
 </t>
         </is>
       </c>
@@ -542,10 +554,49 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Vertus médicinales</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les semences sont antiscorbutiques et diurétiques.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Brassica_napus</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Brassica_napus</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Brassica napus L. subps. napus (ou Brassica napus Oil Rape Group) : le colza
 Brassica napus L. subsp. napus forma annua (colza de printemps)
